--- a/BackTest/2020-01-19 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-19 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>634.9843987</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>486.6952987000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>71650</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>506.0379987000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70500</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>405.7186987000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>71000</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>284.9494987</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70700</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>1046.4549987</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>70200</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +683,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +720,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +753,17 @@
         <v>1331.32453634</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70650</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +792,17 @@
         <v>1311.14773634</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>70250</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +831,17 @@
         <v>1287.13953634</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>69950</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +874,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +907,17 @@
         <v>1314.47623634</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>69700</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +946,17 @@
         <v>1418.10843634</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>70500</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +985,17 @@
         <v>1229.98604298</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>72700</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1028,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1061,17 @@
         <v>1241.83478539</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>71950</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1104,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1137,17 @@
         <v>1552.05008916</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>72550</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1180,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1217,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1254,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1291,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1328,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1365,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1402,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1439,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1476,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1513,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1550,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1587,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1624,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1661,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1698,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1735,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1772,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1809,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1846,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1883,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1920,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1957,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1994,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,14 +2027,16 @@
         <v>2909.31746678</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1870,7 +2062,7 @@
         <v>3014.20926678</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2095,7 @@
         <v>2974.72911645</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2128,7 @@
         <v>3113.41691645</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2161,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2194,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2227,7 @@
         <v>2995.47381645</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2260,7 @@
         <v>2919.71831645</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2293,7 @@
         <v>3043.50501645</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2326,7 @@
         <v>3146.75731645</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2359,7 @@
         <v>3145.83051645</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2392,7 @@
         <v>3143.04861645</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2425,7 @@
         <v>3015.51591645</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2458,7 @@
         <v>2443.70901645</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2491,7 @@
         <v>2227.96011645</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2524,7 @@
         <v>2289.67401645</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2557,7 @@
         <v>2265.25901645</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2590,7 @@
         <v>2309.51101645</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2623,7 @@
         <v>2248.66180888</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2656,7 @@
         <v>2251.76290888</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2689,7 @@
         <v>2224.69420888</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2722,7 @@
         <v>2155.82850888</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2755,7 @@
         <v>2268.46860888</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2788,7 @@
         <v>2335.408008880001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2821,7 @@
         <v>2328.118308880001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2854,7 @@
         <v>2719.835108880001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2887,7 @@
         <v>2735.637008880001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2920,7 @@
         <v>2801.343708880001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2953,7 @@
         <v>2807.808808880001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2986,7 @@
         <v>2845.439908880001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3019,7 @@
         <v>2843.557408880001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +3052,7 @@
         <v>2841.869108880001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3085,7 @@
         <v>2704.598708880001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3118,7 @@
         <v>2722.883908880001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3151,7 @@
         <v>2694.804804180001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3184,7 @@
         <v>2694.804804180001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3217,7 @@
         <v>2673.269204180001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3250,7 @@
         <v>2646.834804180001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3283,7 @@
         <v>2501.432004180001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3316,7 @@
         <v>2501.432004180001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3349,7 @@
         <v>2584.351404180001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3382,7 @@
         <v>2587.576004180001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3415,7 @@
         <v>2587.576004180001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3448,7 @@
         <v>2587.576004180001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3481,7 @@
         <v>2588.536004180001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3514,7 @@
         <v>2596.775404180001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3547,7 @@
         <v>2596.775404180001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3580,7 @@
         <v>2596.775404180001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3613,7 @@
         <v>2596.775404180001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3646,7 @@
         <v>2551.292804180001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3679,7 @@
         <v>2532.140804180001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3712,7 @@
         <v>2580.964304180001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3745,7 @@
         <v>2580.964304180001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3778,7 @@
         <v>2580.864304180001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3811,7 @@
         <v>2592.864304180001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3751,7 +3943,7 @@
         <v>2606.746804180001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +4009,7 @@
         <v>2592.872302360001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4042,7 @@
         <v>2592.85630236</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4075,7 @@
         <v>2608.103734230001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4015,7 +4207,7 @@
         <v>2601.865836430001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4240,7 @@
         <v>2601.865836430001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4273,7 @@
         <v>2601.874836430001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4306,7 @@
         <v>2601.865836430001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4339,7 @@
         <v>2609.991136430001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4372,7 @@
         <v>2609.735636430001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4405,7 @@
         <v>2609.735636430001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4438,7 @@
         <v>2620.334336430001</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4471,7 @@
         <v>2620.334336430001</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4504,7 @@
         <v>2604.779236430001</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4537,7 @@
         <v>2604.779236430001</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4570,7 @@
         <v>2594.605136430001</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4603,7 @@
         <v>2594.605136430001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4636,7 @@
         <v>2588.229536430001</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4669,7 @@
         <v>2576.688536430001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4702,7 @@
         <v>2576.69633643</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4735,7 @@
         <v>2502.480136430001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4768,7 @@
         <v>2502.480136430001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4801,7 @@
         <v>2417.582236430001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4834,7 @@
         <v>2491.156636430001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4867,7 @@
         <v>2454.72783643</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4900,7 @@
         <v>2454.74463643</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4933,7 @@
         <v>2454.74463643</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4966,7 @@
         <v>2454.74463643</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4999,7 @@
         <v>2449.18083643</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5032,7 @@
         <v>2434.734436430001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5065,7 @@
         <v>2485.358036430001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5098,7 @@
         <v>2485.358036430001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5131,7 @@
         <v>2477.507136430001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5164,7 @@
         <v>2477.507136430001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5197,7 @@
         <v>2481.574536430001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5230,7 @@
         <v>2440.181836430001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5263,7 @@
         <v>2472.65543643</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5296,7 @@
         <v>2479.665436430001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5329,7 @@
         <v>2433.063336430001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5362,7 @@
         <v>2450.583336430001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5395,7 @@
         <v>2445.692636430001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5428,7 @@
         <v>2445.692636430001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5461,7 @@
         <v>2445.39263643</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5494,7 @@
         <v>2445.66823643</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5527,7 @@
         <v>2480.191936430001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5560,7 @@
         <v>2480.84293643</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5593,7 @@
         <v>2399.006936430001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5626,7 @@
         <v>2402.805336430001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5659,7 @@
         <v>2401.361736430001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5830,7 +6022,7 @@
         <v>2464.927043610001</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6055,7 @@
         <v>2456.804643610001</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6259,7 +6451,7 @@
         <v>2507.611343610001</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6484,7 @@
         <v>2502.631243610001</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6517,7 @@
         <v>2511.795443610001</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -8272,7 +8464,7 @@
         <v>2297.2507647</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8497,7 @@
         <v>2319.9419647</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8536,7 +8728,7 @@
         <v>2368.4072647</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8761,7 @@
         <v>2396.32913126</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8794,7 @@
         <v>2467.88173126</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8827,7 @@
         <v>2521.59633126</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8860,7 @@
         <v>2637.80793126</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8893,7 @@
         <v>2549.13375155</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8926,7 @@
         <v>2553.95795155</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8959,7 @@
         <v>2588.79555155</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8992,7 @@
         <v>2530.79555155</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +9025,7 @@
         <v>2455.71465155</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9058,7 @@
         <v>2451.17085155</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +9091,7 @@
         <v>2453.43585155</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +9124,7 @@
         <v>2469.11185155</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9157,7 @@
         <v>2507.33935155</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9190,7 @@
         <v>2633.84315155</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9223,7 @@
         <v>2743.23885155</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9256,7 @@
         <v>2826.67025155</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9289,7 @@
         <v>2986.89720894</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9322,7 @@
         <v>3137.71173746</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9355,7 @@
         <v>3118.02393746</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9388,7 @@
         <v>3224.283737459999</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9421,7 @@
         <v>3224.283737459999</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9454,7 @@
         <v>3176.755137459999</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9487,7 @@
         <v>3186.722837459999</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9520,7 @@
         <v>3186.052837459999</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9553,7 @@
         <v>3176.032837459999</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9586,7 @@
         <v>3261.994680599999</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9619,7 @@
         <v>3429.508680599999</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9652,7 @@
         <v>3284.11695911</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9685,7 @@
         <v>3283.11695911</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9718,7 @@
         <v>3455.545359109999</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9751,7 @@
         <v>3455.98445911</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9784,7 @@
         <v>3448.59535911</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9817,7 @@
         <v>3442.89205911</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9850,7 @@
         <v>3452.11135911</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9883,7 @@
         <v>3452.11135911</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9916,7 @@
         <v>3460.88055911</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9949,7 @@
         <v>3336.99225911</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9982,7 @@
         <v>3246.89865911</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +10015,7 @@
         <v>3254.61915911</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +10048,7 @@
         <v>3261.314459109999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +10081,7 @@
         <v>3261.314459109999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +10114,7 @@
         <v>3218.210159109999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +10147,7 @@
         <v>3218.310159109999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +10180,7 @@
         <v>3241.586903529999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10213,7 @@
         <v>3227.378816179999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10246,7 @@
         <v>3245.529016179999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10279,7 @@
         <v>3247.237316179999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10312,7 @@
         <v>3270.682016179999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10345,7 @@
         <v>3180.831838819999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10378,7 @@
         <v>3141.924038819999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10411,7 @@
         <v>3143.559038819999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10444,7 @@
         <v>3143.720838819999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10477,7 @@
         <v>3032.029138819999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10510,7 @@
         <v>3014.969038819999</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10543,7 @@
         <v>3043.485138819999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10576,7 @@
         <v>3038.425738819999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10609,7 @@
         <v>3019.042438819999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10642,7 @@
         <v>3049.744138819999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10675,7 @@
         <v>3118.828679549999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10708,7 @@
         <v>3115.956079549999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10741,7 @@
         <v>3116.180579549999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10774,7 @@
         <v>3112.125679549998</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10807,7 @@
         <v>3112.125679549998</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10840,7 @@
         <v>3095.669379549999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10873,7 @@
         <v>3032.409179549998</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10906,7 @@
         <v>3121.197379549998</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10939,7 @@
         <v>3197.498479549999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10972,7 @@
         <v>3197.859679549998</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11005,7 @@
         <v>3204.864479549999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11038,7 @@
         <v>3193.612379549998</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11071,7 @@
         <v>3195.589979549999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11104,7 @@
         <v>3177.871179549998</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11137,7 @@
         <v>3270.782179549999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11011,7 +11203,7 @@
         <v>3216.209279549998</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11236,7 @@
         <v>3210.436979549998</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11269,7 @@
         <v>3207.029779549998</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11302,7 @@
         <v>3231.235279549998</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11176,7 +11368,7 @@
         <v>3166.835079549998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11401,7 @@
         <v>3122.082579549998</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11434,7 @@
         <v>3118.272879549998</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11467,7 @@
         <v>3119.743479549998</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11500,7 @@
         <v>3119.743479549998</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11533,7 @@
         <v>3110.478079549998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11566,7 @@
         <v>3111.952679549998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11599,7 @@
         <v>3139.567379549998</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11632,7 @@
         <v>3122.557379549998</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11665,7 @@
         <v>3025.199479549998</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11698,7 @@
         <v>3030.170479549998</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11731,7 @@
         <v>3018.749879549998</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11764,7 @@
         <v>3019.970079549998</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11797,7 @@
         <v>3018.642079549998</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11830,7 @@
         <v>3013.898879549999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11863,7 @@
         <v>3009.898879549999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11896,7 @@
         <v>3021.506479549998</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11929,7 @@
         <v>2807.568779549998</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11962,7 @@
         <v>2814.894479549998</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11995,7 @@
         <v>2784.192779549998</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +12028,7 @@
         <v>2785.852779549998</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12463,7 +12655,7 @@
         <v>2725.946979549998</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12688,7 @@
         <v>2726.342779549997</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14509,7 +14701,7 @@
         <v>2510.590097949997</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14608,7 +14800,7 @@
         <v>2513.572397949998</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14833,7 @@
         <v>2512.076497949998</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14866,7 @@
         <v>2529.400797949998</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14899,7 @@
         <v>2511.434697949998</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14932,7 @@
         <v>2501.734697949998</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14965,7 @@
         <v>2525.704097949998</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14998,7 @@
         <v>2525.023797949998</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17050,17 +17242,11 @@
         <v>2011.23180602</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>59500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17093,11 +17279,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17130,11 +17312,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17167,11 +17345,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17200,13 +17374,15 @@
         <v>2011.48490602</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>60250</v>
+      </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L509" t="n">
@@ -17237,9 +17413,11 @@
         <v>2014.48490602</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>60400</v>
+      </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17274,9 +17452,11 @@
         <v>1997.93150602</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>60600</v>
+      </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -17311,9 +17491,11 @@
         <v>2021.31600602</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>60150</v>
+      </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17348,9 +17530,11 @@
         <v>2006.416006019999</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>60600</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17385,7 +17569,7 @@
         <v>1978.213306019999</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>60300</v>
@@ -17424,7 +17608,7 @@
         <v>1986.05090602</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>60150</v>
@@ -17463,7 +17647,7 @@
         <v>1990.05900602</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>60500</v>
@@ -17502,7 +17686,7 @@
         <v>2023.861006019999</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>60800</v>
@@ -17541,7 +17725,7 @@
         <v>2049.45280602</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>61350</v>
@@ -17580,7 +17764,7 @@
         <v>2045.85280602</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>62450</v>
@@ -17619,7 +17803,7 @@
         <v>2024.12870602</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>61700</v>
@@ -17658,7 +17842,7 @@
         <v>2028.13970602</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>60800</v>
@@ -17697,7 +17881,7 @@
         <v>2029.53230602</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>61800</v>
@@ -17736,7 +17920,7 @@
         <v>2031.71680602</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>62000</v>
@@ -17812,9 +17996,11 @@
         <v>2025.63120602</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>61950</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -17849,9 +18035,11 @@
         <v>2025.63120602</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>61600</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -17886,9 +18074,11 @@
         <v>2012.35930602</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>61600</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -17923,9 +18113,11 @@
         <v>2013.19930602</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>60900</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -17960,9 +18152,11 @@
         <v>2003.077162</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>61150</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -17997,9 +18191,11 @@
         <v>2002.477162</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>61100</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18034,9 +18230,11 @@
         <v>1928.641962</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>60800</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18071,9 +18269,11 @@
         <v>1928.641962</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>60450</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18108,9 +18308,11 @@
         <v>1907.804962</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>60450</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18145,9 +18347,11 @@
         <v>1907.804962</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>59450</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18182,9 +18386,11 @@
         <v>1908.710062</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>59450</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18219,9 +18425,11 @@
         <v>1900.535562</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>60650</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18256,9 +18464,11 @@
         <v>1915.474162</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>60500</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18293,9 +18503,11 @@
         <v>1901.767262</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>60700</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18330,9 +18542,11 @@
         <v>1901.767262</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>60600</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18367,7 +18581,7 @@
         <v>1901.767262</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>60600</v>
@@ -18406,7 +18620,7 @@
         <v>1930.778862</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>60600</v>
@@ -18445,7 +18659,7 @@
         <v>1847.552062</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>60700</v>
@@ -18484,7 +18698,7 @@
         <v>1856.07876282</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>60450</v>
@@ -18523,7 +18737,7 @@
         <v>1856.52716282</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>60850</v>
@@ -18562,7 +18776,7 @@
         <v>1847.20696282</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>61550</v>
@@ -18601,7 +18815,7 @@
         <v>1847.76866282</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>61250</v>
@@ -18640,7 +18854,7 @@
         <v>1847.78866282</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>61350</v>
@@ -18679,7 +18893,7 @@
         <v>1681.20866282</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>61400</v>
@@ -18718,7 +18932,7 @@
         <v>1681.20866282</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>61100</v>
@@ -18757,7 +18971,7 @@
         <v>1652.28326282</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>61100</v>
@@ -18796,9 +19010,11 @@
         <v>1652.28326282</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>61000</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -18833,7 +19049,7 @@
         <v>1652.28326282</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>61000</v>
@@ -18872,7 +19088,7 @@
         <v>1652.41826282</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>61000</v>
@@ -18911,7 +19127,7 @@
         <v>1664.41826282</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>61050</v>
@@ -18950,7 +19166,7 @@
         <v>1668.15426282</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>61250</v>
@@ -18989,7 +19205,7 @@
         <v>1664.74726282</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>61450</v>
@@ -19028,7 +19244,7 @@
         <v>1664.74726282</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>61300</v>
@@ -19067,7 +19283,7 @@
         <v>1676.74726282</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>61300</v>
@@ -19106,7 +19322,7 @@
         <v>1663.97356282</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>62300</v>
@@ -19145,7 +19361,7 @@
         <v>1743.23116282</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>61800</v>
@@ -19184,7 +19400,7 @@
         <v>1743.25876282</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>62800</v>
@@ -19223,7 +19439,7 @@
         <v>1706.18606282</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>63000</v>
@@ -19262,7 +19478,7 @@
         <v>1706.19606282</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>62100</v>
@@ -19301,9 +19517,11 @@
         <v>1699.88606282</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>62750</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19338,9 +19556,11 @@
         <v>1699.88606282</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>62250</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -19375,9 +19595,11 @@
         <v>1701.22606282</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>62250</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -19412,9 +19634,11 @@
         <v>1720.48836282</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>63000</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19449,9 +19673,11 @@
         <v>1701.46786282</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>63100</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -19486,9 +19712,11 @@
         <v>1706.29396282</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>62600</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -19523,9 +19751,11 @@
         <v>1772.29396282</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>63000</v>
+      </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -19560,9 +19790,11 @@
         <v>1768.00596282</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>63100</v>
+      </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -19671,9 +19903,11 @@
         <v>1659.70596282</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>62750</v>
+      </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -19708,9 +19942,11 @@
         <v>1658.70596282</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>62750</v>
+      </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -19745,9 +19981,11 @@
         <v>1658.70596282</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>62350</v>
+      </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -19782,9 +20020,11 @@
         <v>1658.70596282</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>62350</v>
+      </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -19819,9 +20059,11 @@
         <v>1658.60576282</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>62350</v>
+      </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -19856,9 +20098,11 @@
         <v>1658.60576282</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>62200</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -19893,9 +20137,11 @@
         <v>1658.90856282</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>62200</v>
+      </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -19930,9 +20176,11 @@
         <v>1675.28776282</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>62250</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -19967,9 +20215,11 @@
         <v>1682.07386282</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>62650</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20004,9 +20254,11 @@
         <v>1682.10216282</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>62950</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20041,9 +20293,11 @@
         <v>1682.14256282</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>63100</v>
+      </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -20078,9 +20332,11 @@
         <v>1682.14256282</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>63150</v>
+      </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -20115,9 +20371,11 @@
         <v>1680.05576282</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>63150</v>
+      </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -20152,9 +20410,11 @@
         <v>1643.15576282</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>62950</v>
+      </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20189,7 +20449,7 @@
         <v>1643.15576282</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>62650</v>
@@ -20228,9 +20488,11 @@
         <v>1643.15576282</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>62650</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20265,9 +20527,11 @@
         <v>1624.05486282</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>62650</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20302,9 +20566,11 @@
         <v>1624.03036282</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>62200</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20339,9 +20605,11 @@
         <v>1606.70606282</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>62100</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20376,9 +20644,11 @@
         <v>1590.87386282</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>61900</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20413,9 +20683,11 @@
         <v>1744.52906282</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>61700</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -20450,9 +20722,11 @@
         <v>1744.004062819999</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>62500</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20487,9 +20761,11 @@
         <v>1744.004062819999</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>62350</v>
+      </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -20524,9 +20800,11 @@
         <v>1757.604062819999</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>62350</v>
+      </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20561,9 +20839,11 @@
         <v>1736.447462819999</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>62400</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20598,9 +20878,11 @@
         <v>1735.735762819999</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>62350</v>
+      </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20635,9 +20917,11 @@
         <v>1735.735762819999</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>62300</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20672,9 +20956,11 @@
         <v>1824.629962819999</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>62300</v>
+      </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -20709,9 +20995,11 @@
         <v>1848.359262819999</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>62500</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -20746,9 +21034,11 @@
         <v>1996.204662819999</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>62800</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -20783,9 +21073,11 @@
         <v>1996.204662819999</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>62900</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -25941,6 +26233,6 @@
       <c r="M743" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-19 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>634.9843987</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>486.6952987000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>71650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>506.0379987000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>405.7186987000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>71000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>284.9494987</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>1046.4549987</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>70200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -683,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -753,17 +715,11 @@
         <v>1331.32453634</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>70650</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -792,17 +748,11 @@
         <v>1311.14773634</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>70250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -831,17 +781,11 @@
         <v>1287.13953634</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>69950</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -870,15 +814,11 @@
         <v>1287.13953634</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -907,17 +847,11 @@
         <v>1314.47623634</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>69700</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -946,17 +880,11 @@
         <v>1418.10843634</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>70500</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -985,17 +913,11 @@
         <v>1229.98604298</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>72700</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1024,15 +946,11 @@
         <v>1038.19405747</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1061,17 +979,11 @@
         <v>1241.83478539</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>71950</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1100,15 +1012,11 @@
         <v>1355.581489160001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1137,17 +1045,11 @@
         <v>1552.05008916</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>72550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1176,15 +1078,11 @@
         <v>1762.31558916</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1213,15 +1111,11 @@
         <v>1627.65578916</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1250,15 +1144,11 @@
         <v>1627.65578916</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1287,15 +1177,11 @@
         <v>1488.217289160001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1324,15 +1210,11 @@
         <v>1491.710989160001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1361,15 +1243,11 @@
         <v>1252.669189160001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1398,15 +1276,11 @@
         <v>1271.718889160001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1439,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1472,15 +1342,11 @@
         <v>1476.037589160001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1509,15 +1375,11 @@
         <v>1579.101589160001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1546,15 +1408,11 @@
         <v>1604.656789160001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1583,15 +1441,11 @@
         <v>1579.374989160001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1624,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1661,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1698,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1735,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1772,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1809,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1846,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1883,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1920,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1957,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1994,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2027,16 +1837,14 @@
         <v>2909.31746678</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
       <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -2062,7 +1870,7 @@
         <v>3014.20926678</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2095,7 +1903,7 @@
         <v>2974.72911645</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2128,7 +1936,7 @@
         <v>3113.41691645</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2161,7 +1969,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2194,7 +2002,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2227,7 +2035,7 @@
         <v>2995.47381645</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2260,7 +2068,7 @@
         <v>2919.71831645</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2293,7 +2101,7 @@
         <v>3043.50501645</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2326,7 +2134,7 @@
         <v>3146.75731645</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2359,7 +2167,7 @@
         <v>3145.83051645</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2392,7 +2200,7 @@
         <v>3143.04861645</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2425,7 +2233,7 @@
         <v>3015.51591645</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2458,7 +2266,7 @@
         <v>2443.70901645</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2491,7 +2299,7 @@
         <v>2227.96011645</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2524,7 +2332,7 @@
         <v>2289.67401645</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2557,7 +2365,7 @@
         <v>2265.25901645</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2590,7 +2398,7 @@
         <v>2309.51101645</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2623,7 +2431,7 @@
         <v>2248.66180888</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2656,7 +2464,7 @@
         <v>2251.76290888</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2689,7 +2497,7 @@
         <v>2224.69420888</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2722,7 +2530,7 @@
         <v>2155.82850888</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2755,7 +2563,7 @@
         <v>2268.46860888</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2788,7 +2596,7 @@
         <v>2335.408008880001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2821,7 +2629,7 @@
         <v>2328.118308880001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2854,7 +2662,7 @@
         <v>2719.835108880001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2887,7 +2695,7 @@
         <v>2735.637008880001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2920,7 +2728,7 @@
         <v>2801.343708880001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2953,7 +2761,7 @@
         <v>2807.808808880001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2986,7 +2794,7 @@
         <v>2845.439908880001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3019,7 +2827,7 @@
         <v>2843.557408880001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3052,7 +2860,7 @@
         <v>2841.869108880001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3085,7 +2893,7 @@
         <v>2704.598708880001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3118,7 +2926,7 @@
         <v>2722.883908880001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3151,7 +2959,7 @@
         <v>2694.804804180001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3184,7 +2992,7 @@
         <v>2694.804804180001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3217,7 +3025,7 @@
         <v>2673.269204180001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3250,7 +3058,7 @@
         <v>2646.834804180001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3283,7 +3091,7 @@
         <v>2501.432004180001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3316,7 +3124,7 @@
         <v>2501.432004180001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3349,7 +3157,7 @@
         <v>2584.351404180001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3382,7 +3190,7 @@
         <v>2587.576004180001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3415,7 +3223,7 @@
         <v>2587.576004180001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3448,7 +3256,7 @@
         <v>2587.576004180001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3481,7 +3289,7 @@
         <v>2588.536004180001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3514,7 +3322,7 @@
         <v>2596.775404180001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3547,7 +3355,7 @@
         <v>2596.775404180001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3580,7 +3388,7 @@
         <v>2596.775404180001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3613,7 +3421,7 @@
         <v>2596.775404180001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3646,7 +3454,7 @@
         <v>2551.292804180001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3679,7 +3487,7 @@
         <v>2532.140804180001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3712,7 +3520,7 @@
         <v>2580.964304180001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3745,7 +3553,7 @@
         <v>2580.964304180001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3778,7 +3586,7 @@
         <v>2580.864304180001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3811,7 +3619,7 @@
         <v>2592.864304180001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3943,7 +3751,7 @@
         <v>2606.746804180001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4009,7 +3817,7 @@
         <v>2592.872302360001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4042,7 +3850,7 @@
         <v>2592.85630236</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4075,7 +3883,7 @@
         <v>2608.103734230001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4207,7 +4015,7 @@
         <v>2601.865836430001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4240,7 +4048,7 @@
         <v>2601.865836430001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4273,7 +4081,7 @@
         <v>2601.874836430001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4306,7 +4114,7 @@
         <v>2601.865836430001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4339,7 +4147,7 @@
         <v>2609.991136430001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4372,7 +4180,7 @@
         <v>2609.735636430001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4405,7 +4213,7 @@
         <v>2609.735636430001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4438,7 +4246,7 @@
         <v>2620.334336430001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4471,7 +4279,7 @@
         <v>2620.334336430001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4504,7 +4312,7 @@
         <v>2604.779236430001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4537,7 +4345,7 @@
         <v>2604.779236430001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4570,7 +4378,7 @@
         <v>2594.605136430001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4603,7 +4411,7 @@
         <v>2594.605136430001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4636,7 +4444,7 @@
         <v>2588.229536430001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4669,7 +4477,7 @@
         <v>2576.688536430001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4702,7 +4510,7 @@
         <v>2576.69633643</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4735,7 +4543,7 @@
         <v>2502.480136430001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4768,7 +4576,7 @@
         <v>2502.480136430001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4801,7 +4609,7 @@
         <v>2417.582236430001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4834,7 +4642,7 @@
         <v>2491.156636430001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4867,7 +4675,7 @@
         <v>2454.72783643</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4900,7 +4708,7 @@
         <v>2454.74463643</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4933,7 +4741,7 @@
         <v>2454.74463643</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4966,7 +4774,7 @@
         <v>2454.74463643</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4999,7 +4807,7 @@
         <v>2449.18083643</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5032,7 +4840,7 @@
         <v>2434.734436430001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5065,7 +4873,7 @@
         <v>2485.358036430001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5098,7 +4906,7 @@
         <v>2485.358036430001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5131,7 +4939,7 @@
         <v>2477.507136430001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5164,7 +4972,7 @@
         <v>2477.507136430001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5197,7 +5005,7 @@
         <v>2481.574536430001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5230,7 +5038,7 @@
         <v>2440.181836430001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5263,7 +5071,7 @@
         <v>2472.65543643</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5296,7 +5104,7 @@
         <v>2479.665436430001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5329,7 +5137,7 @@
         <v>2433.063336430001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5362,7 +5170,7 @@
         <v>2450.583336430001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5395,7 +5203,7 @@
         <v>2445.692636430001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5428,7 +5236,7 @@
         <v>2445.692636430001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5461,7 +5269,7 @@
         <v>2445.39263643</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5494,7 +5302,7 @@
         <v>2445.66823643</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5527,7 +5335,7 @@
         <v>2480.191936430001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5560,7 +5368,7 @@
         <v>2480.84293643</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5593,7 +5401,7 @@
         <v>2399.006936430001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5626,7 +5434,7 @@
         <v>2402.805336430001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5659,7 +5467,7 @@
         <v>2401.361736430001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -9652,7 +9460,7 @@
         <v>3284.11695911</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9685,7 +9493,7 @@
         <v>3283.11695911</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9751,7 +9559,7 @@
         <v>3455.98445911</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9784,7 +9592,7 @@
         <v>3448.59535911</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9817,7 +9625,7 @@
         <v>3442.89205911</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9850,7 +9658,7 @@
         <v>3452.11135911</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9883,7 +9691,7 @@
         <v>3452.11135911</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9916,7 +9724,7 @@
         <v>3460.88055911</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9949,7 +9757,7 @@
         <v>3336.99225911</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9982,7 +9790,7 @@
         <v>3246.89865911</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10015,7 +9823,7 @@
         <v>3254.61915911</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10048,7 +9856,7 @@
         <v>3261.314459109999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10081,7 +9889,7 @@
         <v>3261.314459109999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10114,7 +9922,7 @@
         <v>3218.210159109999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10147,7 +9955,7 @@
         <v>3218.310159109999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10180,7 +9988,7 @@
         <v>3241.586903529999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10213,7 +10021,7 @@
         <v>3227.378816179999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10246,7 +10054,7 @@
         <v>3245.529016179999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10279,7 +10087,7 @@
         <v>3247.237316179999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10312,7 +10120,7 @@
         <v>3270.682016179999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10345,7 +10153,7 @@
         <v>3180.831838819999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10378,7 +10186,7 @@
         <v>3141.924038819999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10411,7 +10219,7 @@
         <v>3143.559038819999</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10444,7 +10252,7 @@
         <v>3143.720838819999</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10477,7 +10285,7 @@
         <v>3032.029138819999</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10510,7 +10318,7 @@
         <v>3014.969038819999</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10543,7 +10351,7 @@
         <v>3043.485138819999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10576,7 +10384,7 @@
         <v>3038.425738819999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10609,7 +10417,7 @@
         <v>3019.042438819999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10642,7 +10450,7 @@
         <v>3049.744138819999</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10675,7 +10483,7 @@
         <v>3118.828679549999</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10708,7 +10516,7 @@
         <v>3115.956079549999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10741,7 +10549,7 @@
         <v>3116.180579549999</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10774,7 +10582,7 @@
         <v>3112.125679549998</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10807,7 +10615,7 @@
         <v>3112.125679549998</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10840,7 +10648,7 @@
         <v>3095.669379549999</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10873,7 +10681,7 @@
         <v>3032.409179549998</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10906,7 +10714,7 @@
         <v>3121.197379549998</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10939,7 +10747,7 @@
         <v>3197.498479549999</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10972,7 +10780,7 @@
         <v>3197.859679549998</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11005,7 +10813,7 @@
         <v>3204.864479549999</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11038,7 +10846,7 @@
         <v>3193.612379549998</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11071,7 +10879,7 @@
         <v>3195.589979549999</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11104,7 +10912,7 @@
         <v>3177.871179549998</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11137,7 +10945,7 @@
         <v>3270.782179549999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11203,7 +11011,7 @@
         <v>3216.209279549998</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11236,7 +11044,7 @@
         <v>3210.436979549998</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11269,7 +11077,7 @@
         <v>3207.029779549998</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11302,7 +11110,7 @@
         <v>3231.235279549998</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11368,7 +11176,7 @@
         <v>3166.835079549998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11401,7 +11209,7 @@
         <v>3122.082579549998</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11434,7 +11242,7 @@
         <v>3118.272879549998</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11467,7 +11275,7 @@
         <v>3119.743479549998</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11500,7 +11308,7 @@
         <v>3119.743479549998</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11533,7 +11341,7 @@
         <v>3110.478079549998</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11566,7 +11374,7 @@
         <v>3111.952679549998</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11599,7 +11407,7 @@
         <v>3139.567379549998</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11632,7 +11440,7 @@
         <v>3122.557379549998</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11665,7 +11473,7 @@
         <v>3025.199479549998</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11698,7 +11506,7 @@
         <v>3030.170479549998</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11731,7 +11539,7 @@
         <v>3018.749879549998</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11764,7 +11572,7 @@
         <v>3019.970079549998</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11797,7 +11605,7 @@
         <v>3018.642079549998</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11830,7 +11638,7 @@
         <v>3013.898879549999</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11863,7 +11671,7 @@
         <v>3009.898879549999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11896,7 +11704,7 @@
         <v>3021.506479549998</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11929,7 +11737,7 @@
         <v>2807.568779549998</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11962,7 +11770,7 @@
         <v>2814.894479549998</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11995,7 +11803,7 @@
         <v>2784.192779549998</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12028,7 +11836,7 @@
         <v>2785.852779549998</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -17242,11 +17050,17 @@
         <v>2011.23180602</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>59500</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17275,11 +17089,17 @@
         <v>2009.83230602</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>60500</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17308,11 +17128,17 @@
         <v>2008.23230602</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>60450</v>
+      </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17341,11 +17167,17 @@
         <v>2008.23230602</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>60250</v>
+      </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17382,7 +17214,7 @@
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L509" t="n">
@@ -17413,11 +17245,9 @@
         <v>2014.48490602</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>60400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17491,11 +17321,9 @@
         <v>2021.31600602</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>60150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17725,11 +17553,9 @@
         <v>2049.45280602</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>61350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17764,11 +17590,9 @@
         <v>2045.85280602</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>62450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17803,11 +17627,9 @@
         <v>2024.12870602</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>61700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17842,11 +17664,9 @@
         <v>2028.13970602</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -17881,11 +17701,9 @@
         <v>2029.53230602</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>61800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -17920,11 +17738,9 @@
         <v>2031.71680602</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>62000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -17996,11 +17812,9 @@
         <v>2025.63120602</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18035,11 +17849,9 @@
         <v>2025.63120602</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18074,11 +17886,9 @@
         <v>2012.35930602</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18113,11 +17923,9 @@
         <v>2013.19930602</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>60900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18152,11 +17960,9 @@
         <v>2003.077162</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>61150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18191,11 +17997,9 @@
         <v>2002.477162</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>61100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18269,11 +18073,9 @@
         <v>1928.641962</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>60450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -19478,11 +19280,9 @@
         <v>1706.19606282</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>62100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19556,11 +19356,9 @@
         <v>1699.88606282</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>62250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -19673,11 +19471,9 @@
         <v>1701.46786282</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>63100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -19712,11 +19508,9 @@
         <v>1706.29396282</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>62600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -19751,11 +19545,9 @@
         <v>1772.29396282</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>63000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -19790,11 +19582,9 @@
         <v>1768.00596282</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>63100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -19903,11 +19693,9 @@
         <v>1659.70596282</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>62750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -19942,11 +19730,9 @@
         <v>1658.70596282</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>62750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -19981,11 +19767,9 @@
         <v>1658.70596282</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>62350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -20020,11 +19804,9 @@
         <v>1658.70596282</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>62350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -20059,11 +19841,9 @@
         <v>1658.60576282</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>62350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20254,11 +20034,9 @@
         <v>1682.10216282</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>62950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20293,11 +20071,9 @@
         <v>1682.14256282</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>63100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -20332,11 +20108,9 @@
         <v>1682.14256282</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>63150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -20371,11 +20145,9 @@
         <v>1680.05576282</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>63150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -20410,11 +20182,9 @@
         <v>1643.15576282</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>62950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20449,11 +20219,9 @@
         <v>1643.15576282</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>62650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20488,11 +20256,9 @@
         <v>1643.15576282</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>62650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -21112,9 +20878,11 @@
         <v>2006.204662819999</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>62900</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -26233,6 +26001,6 @@
       <c r="M743" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-19 BackTest ZEC.xlsx
@@ -451,7 +451,7 @@
         <v>634.9843987</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>486.6952987000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>71650</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>506.0379987000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70500</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>405.7186987000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>71000</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>284.9494987</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70700</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>1046.4549987</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>70200</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +683,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +720,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +753,17 @@
         <v>1331.32453634</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70650</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +792,15 @@
         <v>1311.14773634</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +829,15 @@
         <v>1287.13953634</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +866,15 @@
         <v>1287.13953634</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +903,15 @@
         <v>1314.47623634</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +940,15 @@
         <v>1418.10843634</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +977,15 @@
         <v>1229.98604298</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1014,15 @@
         <v>1038.19405747</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1051,15 @@
         <v>1241.83478539</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1088,15 @@
         <v>1355.581489160001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1129,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1162,15 @@
         <v>1762.31558916</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1199,15 @@
         <v>1627.65578916</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1236,15 @@
         <v>1627.65578916</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1273,15 @@
         <v>1488.217289160001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1310,15 @@
         <v>1491.710989160001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1347,15 @@
         <v>1252.669189160001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1384,15 @@
         <v>1271.718889160001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1425,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1458,15 @@
         <v>1476.037589160001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1495,15 @@
         <v>1579.101589160001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1532,15 @@
         <v>1604.656789160001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1569,15 @@
         <v>1579.374989160001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1610,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1647,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1684,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1721,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1758,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1795,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1832,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1869,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1906,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,14 +1939,16 @@
         <v>2903.771090440001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1804,7 +1974,7 @@
         <v>3036.66470162</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +2007,7 @@
         <v>2909.31746678</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2040,7 @@
         <v>3014.20926678</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2073,7 @@
         <v>2974.72911645</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2106,7 @@
         <v>3113.41691645</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2139,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2172,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2205,7 @@
         <v>2995.47381645</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2238,7 @@
         <v>2919.71831645</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2271,7 @@
         <v>3043.50501645</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2304,7 @@
         <v>3146.75731645</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2337,7 @@
         <v>3145.83051645</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2370,7 @@
         <v>3143.04861645</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2403,7 @@
         <v>3015.51591645</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2436,7 @@
         <v>2443.70901645</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2469,7 @@
         <v>2227.96011645</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -9460,7 +9630,7 @@
         <v>3284.11695911</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9663,7 @@
         <v>3283.11695911</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -17050,17 +17220,11 @@
         <v>2011.23180602</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>59500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17089,17 +17253,11 @@
         <v>2009.83230602</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>60500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17128,17 +17286,11 @@
         <v>2008.23230602</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>60450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17167,17 +17319,11 @@
         <v>2008.23230602</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>60250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17206,17 +17352,11 @@
         <v>2011.48490602</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>60250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17249,11 +17389,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17282,17 +17418,11 @@
         <v>1997.93150602</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>60600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17325,11 +17455,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17358,17 +17484,11 @@
         <v>2006.416006019999</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>60600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17397,17 +17517,11 @@
         <v>1978.213306019999</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>60300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17436,17 +17550,11 @@
         <v>1986.05090602</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>60150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17475,17 +17583,11 @@
         <v>1990.05900602</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>60500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17514,17 +17616,11 @@
         <v>2023.861006019999</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17557,11 +17653,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17594,11 +17686,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17631,11 +17719,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17668,11 +17752,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17705,11 +17785,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17742,11 +17818,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17779,11 +17851,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17816,11 +17884,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17853,11 +17917,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17890,11 +17950,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17927,11 +17983,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17964,11 +18016,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18001,11 +18049,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18034,17 +18078,11 @@
         <v>1928.641962</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18077,11 +18115,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18110,17 +18144,11 @@
         <v>1907.804962</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>60450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18149,17 +18177,11 @@
         <v>1907.804962</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>59450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18188,17 +18210,11 @@
         <v>1908.710062</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>59450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18227,17 +18243,11 @@
         <v>1900.535562</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>60650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18266,17 +18276,11 @@
         <v>1915.474162</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>60500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18305,17 +18309,11 @@
         <v>1901.767262</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18344,17 +18342,11 @@
         <v>1901.767262</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>60600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18383,17 +18375,11 @@
         <v>1901.767262</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>60600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18422,17 +18408,11 @@
         <v>1930.778862</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>60600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18461,17 +18441,11 @@
         <v>1847.552062</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18500,17 +18474,11 @@
         <v>1856.07876282</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>60450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18539,17 +18507,11 @@
         <v>1856.52716282</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>60850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18578,17 +18540,11 @@
         <v>1847.20696282</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>61550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18617,17 +18573,11 @@
         <v>1847.76866282</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>61250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18656,17 +18606,11 @@
         <v>1847.78866282</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>61350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18695,17 +18639,11 @@
         <v>1681.20866282</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>61400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18734,17 +18672,11 @@
         <v>1681.20866282</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>61100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18773,17 +18705,11 @@
         <v>1652.28326282</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>61100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18812,17 +18738,11 @@
         <v>1652.28326282</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>61000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18851,17 +18771,11 @@
         <v>1652.28326282</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>61000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18890,17 +18804,11 @@
         <v>1652.41826282</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>61000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18929,17 +18837,11 @@
         <v>1664.41826282</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>61050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18968,17 +18870,11 @@
         <v>1668.15426282</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>61250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19007,17 +18903,11 @@
         <v>1664.74726282</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>61450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19046,17 +18936,11 @@
         <v>1664.74726282</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>61300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19085,17 +18969,11 @@
         <v>1676.74726282</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>61300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19124,17 +19002,11 @@
         <v>1663.97356282</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>62300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19163,17 +19035,11 @@
         <v>1743.23116282</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>61800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19202,17 +19068,11 @@
         <v>1743.25876282</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>62800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19241,17 +19101,11 @@
         <v>1706.18606282</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>63000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19284,11 +19138,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19317,17 +19167,11 @@
         <v>1699.88606282</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>62750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +19204,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19393,17 +19233,11 @@
         <v>1701.22606282</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>62250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19432,17 +19266,11 @@
         <v>1720.48836282</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>63000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19475,11 +19303,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19512,11 +19336,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19549,11 +19369,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19586,11 +19402,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19623,11 +19435,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19660,11 +19468,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19697,11 +19501,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19734,11 +19534,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19771,11 +19567,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19808,11 +19600,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19845,11 +19633,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19878,17 +19662,11 @@
         <v>1658.60576282</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>62200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19917,17 +19695,11 @@
         <v>1658.90856282</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>62200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19956,17 +19728,11 @@
         <v>1675.28776282</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>62250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19995,17 +19761,11 @@
         <v>1682.07386282</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>62650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20038,11 +19798,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20075,11 +19831,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20112,11 +19864,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20149,11 +19897,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20186,11 +19930,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20223,11 +19963,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20260,11 +19996,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20293,17 +20025,11 @@
         <v>1624.05486282</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>62650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20332,17 +20058,11 @@
         <v>1624.03036282</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>62200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20371,17 +20091,11 @@
         <v>1606.70606282</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>62100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20410,17 +20124,11 @@
         <v>1590.87386282</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>61900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20449,17 +20157,11 @@
         <v>1744.52906282</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>61700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20488,17 +20190,11 @@
         <v>1744.004062819999</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>62500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20527,17 +20223,11 @@
         <v>1744.004062819999</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>62350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20566,17 +20256,11 @@
         <v>1757.604062819999</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>62350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20605,17 +20289,11 @@
         <v>1736.447462819999</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>62400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20644,17 +20322,11 @@
         <v>1735.735762819999</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>62350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20683,17 +20355,11 @@
         <v>1735.735762819999</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>62300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20722,17 +20388,11 @@
         <v>1824.629962819999</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>62300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20761,17 +20421,11 @@
         <v>1848.359262819999</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>62500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20800,17 +20454,11 @@
         <v>1996.204662819999</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>62800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20839,17 +20487,11 @@
         <v>1996.204662819999</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>62900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20878,17 +20520,11 @@
         <v>2006.204662819999</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>62900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20921,11 +20557,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20958,11 +20590,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20995,11 +20623,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21032,11 +20656,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21069,11 +20689,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21106,11 +20722,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21143,11 +20755,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21180,11 +20788,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21217,11 +20821,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21254,11 +20854,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21291,11 +20887,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21328,11 +20920,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21365,11 +20953,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21402,11 +20986,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +21019,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21476,11 +21052,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21513,11 +21085,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21550,11 +21118,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21587,11 +21151,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21624,11 +21184,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21661,11 +21217,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21698,11 +21250,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21735,11 +21283,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21772,11 +21316,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21809,11 +21349,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21846,11 +21382,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21883,11 +21415,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21920,11 +21448,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21957,11 +21481,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21994,11 +21514,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22031,11 +21547,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22068,11 +21580,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22105,11 +21613,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22142,11 +21646,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22179,11 +21679,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22216,11 +21712,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22253,11 +21745,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22290,11 +21778,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22327,11 +21811,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22364,11 +21844,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22401,11 +21877,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22438,11 +21910,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22475,11 +21943,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22512,11 +21976,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22549,11 +22009,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22586,11 +22042,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22623,11 +22075,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22660,11 +22108,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22697,11 +22141,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22734,11 +22174,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22771,11 +22207,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22808,11 +22240,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22845,11 +22273,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22882,11 +22306,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22919,11 +22339,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22956,11 +22372,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22993,11 +22405,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23030,11 +22438,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23067,11 +22471,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23104,11 +22504,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23141,11 +22537,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23178,11 +22570,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23215,11 +22603,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23252,11 +22636,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23289,11 +22669,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23326,11 +22702,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23363,11 +22735,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23400,11 +22768,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23437,11 +22801,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23474,11 +22834,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23511,11 +22867,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23548,11 +22900,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23585,11 +22933,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23622,11 +22966,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23659,11 +22999,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23696,11 +23032,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23733,11 +23065,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23770,11 +23098,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23807,11 +23131,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23844,11 +23164,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23881,11 +23197,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23918,11 +23230,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23955,11 +23263,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23992,11 +23296,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24029,11 +23329,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24066,11 +23362,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24103,11 +23395,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24140,11 +23428,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24177,11 +23461,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24214,11 +23494,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24251,11 +23527,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24288,11 +23560,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24325,11 +23593,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24362,11 +23626,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24399,11 +23659,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24436,11 +23692,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24473,11 +23725,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24510,11 +23758,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24547,11 +23791,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24584,11 +23824,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24621,11 +23857,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24658,11 +23890,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24695,11 +23923,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24732,11 +23956,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24769,11 +23989,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24806,11 +24022,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24843,11 +24055,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24880,11 +24088,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24917,11 +24121,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24954,11 +24154,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24991,11 +24187,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25028,11 +24220,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25065,11 +24253,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +24286,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25139,11 +24319,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25176,11 +24352,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25213,11 +24385,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25250,11 +24418,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25287,11 +24451,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25324,11 +24484,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25361,11 +24517,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25398,11 +24550,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25435,11 +24583,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25472,11 +24616,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25509,11 +24649,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25546,11 +24682,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25583,11 +24715,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25620,11 +24748,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25657,11 +24781,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25694,11 +24814,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25731,11 +24847,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25768,11 +24880,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25805,11 +24913,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25842,11 +24946,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25879,11 +24979,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25916,11 +25012,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25953,11 +25045,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25990,11 +25078,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
